--- a/whatsapp-bot-master/backend/chats/573135315386@c.us.xlsx
+++ b/whatsapp-bot-master/backend/chats/573135315386@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,6 +29,27 @@
   </si>
   <si>
     <t>10/03/2022 08:53 am</t>
+  </si>
+  <si>
+    <t>11/03/2022 03:06 pm</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>11/03/2022 03:07 pm</t>
+  </si>
+  <si>
+    <t>Senado</t>
+  </si>
+  <si>
+    <t>Camara</t>
+  </si>
+  <si>
+    <t>11/03/2022 03:08 pm</t>
+  </si>
+  <si>
+    <t>Cámara</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,6 +469,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
